--- a/xlsx/_wiki_芒努斯·卡尔森_intext.xlsx
+++ b/xlsx/_wiki_芒努斯·卡尔森_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="315">
   <si>
     <t>芒努斯·卡尔森</t>
   </si>
@@ -558,12 +558,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Project:%E4%B8%8A%E4%BC%A0</t>
-  </si>
-  <si>
-    <t>上传图像或多媒体文件[u]</t>
   </si>
   <si>
     <t>https://ar.wikipedia.org/wiki/%D9%85%D8%A7%D8%BA%D9%86%D9%88%D8%B3_%D9%83%D8%A7%D8%B1%D9%84%D8%B3%D9%86</t>
@@ -1314,7 +1308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:G159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1523,7 +1517,7 @@
         <v>15</v>
       </c>
       <c r="G9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1730,7 +1724,7 @@
         <v>33</v>
       </c>
       <c r="G18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3524,7 +3518,7 @@
         <v>188</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3547,7 +3541,7 @@
         <v>190</v>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3777,7 +3771,7 @@
         <v>210</v>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3800,7 +3794,7 @@
         <v>212</v>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4513,7 +4507,7 @@
         <v>274</v>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4536,7 +4530,7 @@
         <v>276</v>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4973,29 +4967,6 @@
         <v>314</v>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="s">
-        <v>0</v>
-      </c>
-      <c r="C160" t="s">
-        <v>1</v>
-      </c>
-      <c r="D160" t="n">
-        <v>159</v>
-      </c>
-      <c r="E160" t="s">
-        <v>315</v>
-      </c>
-      <c r="F160" t="s">
-        <v>316</v>
-      </c>
-      <c r="G160" t="n">
         <v>1</v>
       </c>
     </row>

--- a/xlsx/_wiki_芒努斯·卡尔森_intext.xlsx
+++ b/xlsx/_wiki_芒努斯·卡尔森_intext.xlsx
@@ -23,97 +23,97 @@
     <t>https://zh.wikipedia.org/zh-cn/%E8%8A%92%E5%8A%AA%E6%96%AF%C2%B7%E5%8D%A1%E5%B0%94%E6%A3%AE</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%8C%AA%E5%A8%81</t>
   </si>
   <si>
     <t>挪威</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BB%95%E6%96%AF%E8%B4%9D%E6%A0%BC</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%BB%95%E6%96%AF%E8%B4%9D%E6%A0%BC</t>
   </si>
   <si>
     <t>滕斯贝格</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%B1%A1%E6%A3%8B%E5%A4%A7%E5%B8%88</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E9%99%85%E8%B1%A1%E6%A3%8B%E5%A4%A7%E5%B8%88</t>
   </si>
   <si>
     <t>国际象棋大师</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%8B%E9%9A%9B%E8%B1%A1%E6%A3%8B%E8%81%AF%E5%90%88%E6%9C%83</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%96%E7%95%8C%E5%9C%8B%E9%9A%9B%E8%B1%A1%E6%A3%8B%E8%81%AF%E5%90%88%E6%9C%83</t>
   </si>
   <si>
     <t>世界国际象棋联合会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E7%B4%9A%E5%88%86</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%AD%89%E7%B4%9A%E5%88%86</t>
   </si>
   <si>
     <t>等级分</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E8%AA%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%8C%AA%E5%A8%81%E8%AA%9E</t>
   </si>
   <si>
     <t>挪威语</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B1%A1%E6%A3%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9C%8B%E9%9A%9B%E8%B1%A1%E6%A3%8B</t>
   </si>
   <si>
     <t>国际象棋</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%E6%B3%A2%E5%A4%AB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%A1%E5%B0%94%E6%B3%A2%E5%A4%AB</t>
   </si>
   <si>
     <t>卡尔波夫</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%96%AF%E5%B8%95%E7%BE%85%E5%A4%AB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%A1%E6%96%AF%E5%B8%95%E7%BE%85%E5%A4%AB</t>
   </si>
   <si>
     <t>卡斯帕罗夫</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8D%97%E5%BE%B7</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%98%BF%E5%8D%97%E5%BE%B7</t>
   </si>
   <si>
     <t>阿南德</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%A7%86%E5%B0%BC%E5%85%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%85%8B%E6%8B%89%E5%A7%86%E5%B0%BC%E5%85%8B</t>
   </si>
   <si>
     <t>克拉姆尼克</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%B8%95%E6%B4%9B%E5%A4%AB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%89%98%E5%B8%95%E6%B4%9B%E5%A4%AB</t>
   </si>
   <si>
     <t>托帕洛夫</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
     <t>俄罗斯</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E6%96%AF%E7%93%A6%E7%BA%B3%E5%9D%A6%C2%B7%E9%98%BF%E5%8D%97%E5%BE%B7</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BB%B4%E6%96%AF%E7%93%A6%E7%BA%B3%E5%9D%A6%C2%B7%E9%98%BF%E5%8D%97%E5%BE%B7</t>
   </si>
   <si>
     <t>维斯瓦纳坦·阿南德</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%E4%BA%9A%E9%87%91</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%A1%E5%B0%94%E4%BA%9A%E9%87%91</t>
   </si>
   <si>
     <t>卡尔亚金</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B1%A1%E6%A3%8B%E4%B8%96%E7%95%8C%E5%86%A0%E8%BB%8D</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9C%8B%E9%9A%9B%E8%B1%A1%E6%A3%8B%E4%B8%96%E7%95%8C%E5%86%A0%E8%BB%8D</t>
   </si>
   <si>
     <t>国际象棋世界冠军</t>
@@ -143,7 +143,7 @@
     <t>en-World Chess Championship 1892</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E6%96%AF%E5%9D%A6%E5%B0%BC%E8%8C%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A8%81%E5%BB%89%C2%B7%E6%96%AF%E5%9D%A6%E5%B0%BC%E8%8C%A8</t>
   </si>
   <si>
     <t>威廉·斯坦尼茨</t>
@@ -185,7 +185,7 @@
     <t>en-World Chess Championship 1910（Lasker-Janowski）</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9B%BC%E7%B4%90%C2%B7%E6%8B%89%E6%96%AF%E5%85%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BC%8A%E6%9B%BC%E7%B4%90%C2%B7%E6%8B%89%E6%96%AF%E5%85%8B</t>
   </si>
   <si>
     <t>伊曼纽·拉斯克</t>
@@ -197,7 +197,7 @@
     <t>en-World Chess Championship 1921</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%95%E5%A1%9E%C2%B7%E5%8A%B3%E5%B0%94%C2%B7%E5%8D%A1%E5%B8%95%E5%B8%83%E5%85%B0%E5%8D%A1</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BD%95%E5%A1%9E%C2%B7%E5%8A%B3%E5%B0%94%C2%B7%E5%8D%A1%E5%B8%95%E5%B8%83%E5%85%B0%E5%8D%A1</t>
   </si>
   <si>
     <t>何塞·劳尔·卡帕布兰卡</t>
@@ -221,7 +221,7 @@
     <t>en-World Chess Championship 1934</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%C2%B7%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%BE%B7%E7%BD%97%E7%BB%B4%E5%A5%87%C2%B7%E9%98%BF%E5%BB%96%E6%AC%A3</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%C2%B7%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%BE%B7%E7%BD%97%E7%BB%B4%E5%A5%87%C2%B7%E9%98%BF%E5%BB%96%E6%AC%A3</t>
   </si>
   <si>
     <t>亚历山大·亚历山德罗维奇·阿廖欣</t>
@@ -233,7 +233,7 @@
     <t>en-World Chess Championship 1935</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%96%AF%C2%B7%E5%B0%A4%E4%BC%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%A9%AC%E5%85%8B%E6%96%AF%C2%B7%E5%B0%A4%E4%BC%9F</t>
   </si>
   <si>
     <t>马克斯·尤伟</t>
@@ -263,7 +263,7 @@
     <t>en-World Chess Championship 1954</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%93%88%E4%BC%8A%E5%B0%94%C2%B7%E8%8E%AB%E4%BC%8A%E8%B0%A2%E8%80%B6%E7%BB%B4%E5%A5%87%C2%B7%E5%8D%9A%E7%89%B9%E6%B8%A9%E5%B0%BC%E5%85%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%B1%B3%E5%93%88%E4%BC%8A%E5%B0%94%C2%B7%E8%8E%AB%E4%BC%8A%E8%B0%A2%E8%80%B6%E7%BB%B4%E5%A5%87%C2%B7%E5%8D%9A%E7%89%B9%E6%B8%A9%E5%B0%BC%E5%85%8B</t>
   </si>
   <si>
     <t>米哈伊尔·莫伊谢耶维奇·博特温尼克</t>
@@ -275,7 +275,7 @@
     <t>en-World Chess Championship 1957</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E8%A5%BF%E9%87%8C%C2%B7%E6%96%AF%E6%A2%85%E6%96%AF%E6%B4%9B%E5%A4%AB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%93%A6%E8%A5%BF%E9%87%8C%C2%B7%E6%96%AF%E6%A2%85%E6%96%AF%E6%B4%9B%E5%A4%AB</t>
   </si>
   <si>
     <t>瓦西里·斯梅斯洛夫</t>
@@ -293,7 +293,7 @@
     <t>en-World Chess Championship 1960</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%93%88%E4%BC%8A%E5%B0%94%C2%B7%E5%A1%94%E5%B0%94</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%B1%B3%E5%93%88%E4%BC%8A%E5%B0%94%C2%B7%E5%A1%94%E5%B0%94</t>
   </si>
   <si>
     <t>米哈伊尔·塔尔</t>
@@ -317,7 +317,7 @@
     <t>en-World Chess Championship 1966</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E6%A0%BC%E5%85%B0%C2%B7%E5%BD%BC%E5%BE%97%E7%BD%97%E7%9B%B8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%8F%90%E6%A0%BC%E5%85%B0%C2%B7%E5%BD%BC%E5%BE%97%E7%BD%97%E7%9B%B8</t>
   </si>
   <si>
     <t>提格兰·彼得罗相</t>
@@ -329,7 +329,7 @@
     <t>en-World Chess Championship 1969</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B2%8D%E9%87%8C%E6%96%AF%C2%B7%E6%96%AF%E5%B8%95%E6%96%AF%E5%9F%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%B2%8D%E9%87%8C%E6%96%AF%C2%B7%E6%96%AF%E5%B8%95%E6%96%AF%E5%9F%BA</t>
   </si>
   <si>
     <t>鲍里斯·斯帕斯基</t>
@@ -341,7 +341,7 @@
     <t>en-World Chess Championship 1972</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AE%91%E6%AF%94%C2%B7%E8%8F%B2%E8%88%8D%E7%88%BE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%AE%91%E6%AF%94%C2%B7%E8%8F%B2%E8%88%8D%E7%88%BE</t>
   </si>
   <si>
     <t>鲍比·菲舍尔</t>
@@ -437,7 +437,7 @@
     <t>en-FIDE World Chess Championship 1999</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%C2%B7%E5%93%88%E5%88%A9%E5%A4%AB%E6%9B%BC</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%C2%B7%E5%93%88%E5%88%A9%E5%A4%AB%E6%9B%BC</t>
   </si>
   <si>
     <t>亚历山大·哈利夫曼</t>
@@ -449,13 +449,13 @@
     <t>en-FIDE World Chess Championship 2002</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%96%AF%E5%85%B0%C2%B7%E6%B3%A2%E8%AF%BA%E9%A9%AC%E5%BB%96%E5%A4%AB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%A2%E6%96%AF%E5%85%B0%C2%B7%E6%B3%A2%E8%AF%BA%E9%A9%AC%E5%BB%96%E5%A4%AB</t>
   </si>
   <si>
     <t>卢斯兰·波诺马廖夫</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B2%81%E6%96%AF%E5%A1%94%E5%A7%86%C2%B7%E5%8D%A1%E8%A5%BF%E5%A7%86%E6%89%8E%E8%AF%BA%E5%A4%AB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%B2%81%E6%96%AF%E5%A1%94%E5%A7%86%C2%B7%E5%8D%A1%E8%A5%BF%E5%A7%86%E6%89%8E%E8%AF%BA%E5%A4%AB</t>
   </si>
   <si>
     <t>鲁斯塔姆·卡西姆扎诺夫</t>
@@ -467,91 +467,91 @@
     <t>en-FIDE World Chess Championship 2005</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/2006%E5%B9%B4%E5%9B%BD%E9%99%85%E8%B1%A1%E6%A3%8B%E4%B8%96%E7%95%8C%E5%86%A0%E5%86%9B%E5%AF%B9%E6%8A%97%E8%B5%9B</t>
+    <t>https://zh.wikipedia.org/zh-cn/2006%E5%B9%B4%E5%9B%BD%E9%99%85%E8%B1%A1%E6%A3%8B%E4%B8%96%E7%95%8C%E5%86%A0%E5%86%9B%E5%AF%B9%E6%8A%97%E8%B5%9B</t>
   </si>
   <si>
     <t>2006年国际象棋世界冠军对抗赛</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/2007%E5%B9%B4%E5%9B%BD%E9%99%85%E8%B1%A1%E6%A3%8B%E4%B8%96%E7%95%8C%E5%86%A0%E5%86%9B%E5%AF%B9%E6%8A%97%E8%B5%9B</t>
+    <t>https://zh.wikipedia.org/zh-cn/2007%E5%B9%B4%E5%9B%BD%E9%99%85%E8%B1%A1%E6%A3%8B%E4%B8%96%E7%95%8C%E5%86%A0%E5%86%9B%E5%AF%B9%E6%8A%97%E8%B5%9B</t>
   </si>
   <si>
     <t>2007年国际象棋世界冠军对抗赛</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/2008%E5%B9%B4%E5%9B%BD%E9%99%85%E8%B1%A1%E6%A3%8B%E4%B8%96%E7%95%8C%E5%86%A0%E5%86%9B%E5%AF%B9%E6%8A%97%E8%B5%9B</t>
+    <t>https://zh.wikipedia.org/zh-cn/2008%E5%B9%B4%E5%9B%BD%E9%99%85%E8%B1%A1%E6%A3%8B%E4%B8%96%E7%95%8C%E5%86%A0%E5%86%9B%E5%AF%B9%E6%8A%97%E8%B5%9B</t>
   </si>
   <si>
     <t>2008年国际象棋世界冠军对抗赛</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E5%9B%BD%E9%99%85%E8%B1%A1%E6%A3%8B%E4%B8%96%E7%95%8C%E5%86%A0%E5%86%9B%E5%AF%B9%E6%8A%97%E8%B5%9B</t>
+    <t>https://zh.wikipedia.org/zh-cn/2010%E5%B9%B4%E5%9B%BD%E9%99%85%E8%B1%A1%E6%A3%8B%E4%B8%96%E7%95%8C%E5%86%A0%E5%86%9B%E5%AF%B9%E6%8A%97%E8%B5%9B</t>
   </si>
   <si>
     <t>2010年国际象棋世界冠军对抗赛</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/2012%E5%B9%B4%E5%9B%BD%E9%99%85%E8%B1%A1%E6%A3%8B%E4%B8%96%E7%95%8C%E5%86%A0%E5%86%9B%E5%AF%B9%E6%8A%97%E8%B5%9B</t>
+    <t>https://zh.wikipedia.org/zh-cn/2012%E5%B9%B4%E5%9B%BD%E9%99%85%E8%B1%A1%E6%A3%8B%E4%B8%96%E7%95%8C%E5%86%A0%E5%86%9B%E5%AF%B9%E6%8A%97%E8%B5%9B</t>
   </si>
   <si>
     <t>2012年国际象棋世界冠军对抗赛</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/2013%E5%B9%B4%E5%9B%BD%E9%99%85%E8%B1%A1%E6%A3%8B%E4%B8%96%E7%95%8C%E5%86%A0%E5%86%9B%E5%AF%B9%E6%8A%97%E8%B5%9B</t>
+    <t>https://zh.wikipedia.org/zh-cn/2013%E5%B9%B4%E5%9B%BD%E9%99%85%E8%B1%A1%E6%A3%8B%E4%B8%96%E7%95%8C%E5%86%A0%E5%86%9B%E5%AF%B9%E6%8A%97%E8%B5%9B</t>
   </si>
   <si>
     <t>2013年国际象棋世界冠军对抗赛</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4%E5%9B%BD%E9%99%85%E8%B1%A1%E6%A3%8B%E4%B8%96%E7%95%8C%E5%86%A0%E5%86%9B%E8%B5%9B</t>
+    <t>https://zh.wikipedia.org/zh-cn/2016%E5%B9%B4%E5%9B%BD%E9%99%85%E8%B1%A1%E6%A3%8B%E4%B8%96%E7%95%8C%E5%86%A0%E5%86%9B%E8%B5%9B</t>
   </si>
   <si>
     <t>2016年国际象棋世界冠军赛</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
     <t>权威控制</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
   </si>
   <si>
     <t>虚拟国际规范文档</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
   </si>
   <si>
     <t>美国国会图书馆控制号</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
     <t>国际标准名称识别码</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
   </si>
   <si>
     <t>整合规范文档</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
   </si>
   <si>
     <t>法国国家图书馆</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/BIBSYS</t>
+    <t>https://zh.wikipedia.org/zh-cn/BIBSYS</t>
   </si>
   <si>
     <t>BIBSYS</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%A0%BC%E5%8A%AA%E6%96%AF%C2%B7%E5%8D%A1%E7%88%BE%E6%A3%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%A6%AC%E6%A0%BC%E5%8A%AA%E6%96%AF%C2%B7%E5%8D%A1%E7%88%BE%E6%A3%AE</t>
   </si>
   <si>
     <t>浏览条目正文[c]</t>
